--- a/outputs/out_dry.xlsx
+++ b/outputs/out_dry.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1901,1119 +1901,6 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>perihilar_infiltrate</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>pneumonia</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>bronchitis</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>interstitial</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>diseased_lungs</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>hypo_plastic_trachea</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>cardiomegaly</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>pulmonary_nodules</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>pleural_effusion</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>rtm</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>focal_caudodorsal_lung</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>focal_perihilar</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>pulmonary_hypoinflation</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>right_sided_cardiomegaly</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>pericardial_effusion</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>bronchiectasis</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>pulmonary_vessel_enlargement</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>left_sided_cardiomegaly</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>thoracic_lymphadenopathy</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>esophagitis</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2771700</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>vhs_v2</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Study:
-Thoracic radiography: three images dated September 29, 2024
-A right lateral projection of the abdomen is also present in the study.
-Findings:
-The cardiac silhouette is normal in size and shape. The pulmonary vasculature is normal in size. There is a mild generalized bronchointerstitial pulmonary pattern. No pulmonary nodules or masses are present. On the VD view, there is a thin pleural fissure line between the right cranial and middle lung lobes. There is no intrathoracic lymphadenopathy. There is mild T 12-T 13 spondylosis deformans. There is a small soft tissue opaque nodule in the subcutaneous tissues of the caudodorsal cervical region
-Comments:
- Please the other submission for interpretation of the abdomen.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>1. There is no radiographic evidence of heart disease. Consider echocardiography for further evaluation of the reported heart murmur.
-2. The mild diffuse bronchointerstitial pulmonary pattern is a nonspecific finding. This may be a benign age-related change or may indicate allergic, inflammatory, infectious, inhaled irritant or parasitic bronchitis. Airway sampling plus/minus heartworm testing and Baermann fecal flotation can be considered to further evaluate for lower airway disease.
-3. The pleural fissure line seen in the right hemithorax on the VD view may indicate incidental tangential visualization or pleural thickening. Trace pleural effusion is considered less likely.
-5. There is no evidence of pulmonary metastatic disease.
-6. Caudodorsal cervical subcutaneous nodule. Rule out benign or malignant neoplasia, cyst or granuloma. Fine needle aspiration and cytology can be considered for further evaluation if clinically relevant.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>As above.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
